--- a/Work Distribution.xlsx
+++ b/Work Distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyamgarrg21/Documents/Priyam/NCSU/Curriculum/CSC 591 (022) - IOT/Assignments/Assignment 3/IoT_ASN3_G11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB7B7498-623A-4B49-9880-252F91529B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA998F04-99E9-5841-96A2-379E6E70A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{4E889D90-EA5E-6A4A-8C6A-CCB62FB64E75}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Tasks</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Raspberry Pi A Hardware Connectivity</t>
-  </si>
-  <si>
-    <t>Raspberry Pi B Hardware Connectivity</t>
-  </si>
-  <si>
     <t>Raspberry Pi A MQTT Code</t>
   </si>
   <si>
@@ -83,10 +77,19 @@
     <t>Raspberry Pi C MQTT Code</t>
   </si>
   <si>
-    <t>Laptop 2 MQTT Code</t>
-  </si>
-  <si>
     <t>Report/README</t>
+  </si>
+  <si>
+    <t>Raspberry Pi B Hardware Connectivity and Software Integration of Hardware</t>
+  </si>
+  <si>
+    <t>Raspberry Pi A Hardware Connectivity and Software Integration of Hardware</t>
+  </si>
+  <si>
+    <t>Laptop #2 MQTT Code</t>
+  </si>
+  <si>
+    <t>Laptop #1 requirements</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,27 +253,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -278,6 +260,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1B5E90-93BB-B549-8098-0B98DD220759}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,17 +618,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -647,122 +653,129 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="11" t="s">
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6">
         <v>0.2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="6">
         <v>0.2</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="6">
         <v>0.2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="6">
         <v>0.2</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="6">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A5:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
